--- a/data/datos_municipales_AV.xlsx
+++ b/data/datos_municipales_AV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_RStudioprojects\eficiencia_tecnica\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5752D-67B6-43EC-A780-CC88ED785894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF98DE2-15B2-4C57-9062-A1290C7B2233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,14 +949,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
